--- a/ExperimentSchedule.xlsx
+++ b/ExperimentSchedule.xlsx
@@ -20,15 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t xml:space="preserve">HCI Touchband Project Experiment schedule</t>
   </si>
   <si>
+    <t xml:space="preserve">Please add whatever times you can help run the experiment</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fri, March 24</t>
   </si>
   <si>
-    <t xml:space="preserve">Experiment runners</t>
+    <t xml:space="preserve">Experiment runners (2)</t>
   </si>
   <si>
     <t xml:space="preserve">Participant</t>
@@ -37,7 +40,16 @@
     <t xml:space="preserve">Participant ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
     <t xml:space="preserve">2pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serena, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratt 271?</t>
   </si>
   <si>
     <t xml:space="preserve">2:30pm</t>
@@ -68,6 +80,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -89,6 +102,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,57 +181,87 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="12.1122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -228,7 +272,7 @@
     </row>
     <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -245,7 +289,7 @@
     </row>
     <row r="15" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
